--- a/DATA_goal/Junction_Flooding_98.xlsx
+++ b/DATA_goal/Junction_Flooding_98.xlsx
@@ -458,7 +458,7 @@
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -655,103 +655,103 @@
         <v>41530.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>18.74</v>
+        <v>1.87</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>39.83</v>
+        <v>3.98</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>31.89</v>
+        <v>3.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>46.5</v>
+        <v>4.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>15.68</v>
+        <v>1.57</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.45</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.44</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>215.82</v>
+        <v>21.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>40.75</v>
+        <v>4.08</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>26.79</v>
+        <v>2.68</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>23.63</v>
+        <v>2.36</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.74</v>
+        <v>1.27</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>41.23</v>
+        <v>4.12</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41530.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.79</v>
+        <v>2.78</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.33</v>
+        <v>2.23</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.15</v>
+        <v>1.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.05</v>
+        <v>14.6</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.24</v>
+        <v>2.82</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.63</v>
+        <v>1.86</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.33</v>
+        <v>1.93</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.47</v>
+        <v>3.65</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41530.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>1.55</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>50.28</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>41.08</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>68.87</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>28.04</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>18.32</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>20.17</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>25.73</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>268.51</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>33.95</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>17.77</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>33.73</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>15.46</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>21.1</v>
+        <v>2.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.45</v>
+        <v>6.25</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41530.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AC5" s="4" t="n">
         <v>1.12</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>36.31</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>20.24</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>13.08</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>191.83</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>36.64</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>25.39</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>11.17</v>
-      </c>
       <c r="AD5" s="4" t="n">
-        <v>15.25</v>
+        <v>1.53</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>48.07</v>
+        <v>4.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41530.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>33.95</v>
+        <v>3.39</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41530.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>20.95</v>
+        <v>2.09</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>15.51</v>
+        <v>1.55</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>45.54</v>
+        <v>4.55</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>37.38</v>
+        <v>3.74</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>59.68</v>
+        <v>5.97</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>25.36</v>
+        <v>2.54</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>16.74</v>
+        <v>1.67</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>23.33</v>
+        <v>2.33</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>242.17</v>
+        <v>24.22</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>45.72</v>
+        <v>4.57</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>30.79</v>
+        <v>3.08</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>29.58</v>
+        <v>2.96</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>53.9</v>
+        <v>5.39</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41530.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.77</v>
+        <v>2.28</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>49.52</v>
+        <v>4.95</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>40.7</v>
+        <v>4.07</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>69.48</v>
+        <v>6.95</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.57</v>
+        <v>2.76</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.31</v>
+        <v>1.23</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.26</v>
+        <v>1.83</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.88</v>
+        <v>1.99</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.99</v>
+        <v>2.1</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>25.42</v>
+        <v>2.54</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>263.94</v>
+        <v>26.39</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>49.85</v>
+        <v>4.98</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.45</v>
+        <v>1.64</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>33.61</v>
+        <v>3.36</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>33.88</v>
+        <v>3.39</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>20.87</v>
+        <v>2.09</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>63.14</v>
+        <v>6.31</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.56</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41530.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>15.05</v>
+        <v>1.51</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41530.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2.31</v>
+        <v>0.23</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="L10" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P10" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T10" s="4" t="n">
         <v>2.01</v>
       </c>
-      <c r="M10" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S10" s="4" t="n">
+      <c r="U10" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC10" s="4" t="n">
         <v>0.16</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.59</v>
-      </c>
       <c r="AD10" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_98.xlsx
+++ b/DATA_goal/Junction_Flooding_98.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41530.34027777778</v>
+        <v>44782.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.87</v>
+        <v>0.64</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.25</v>
+        <v>0.52</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AA2" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AB2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.5</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.27</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.76</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.13</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.12</v>
+        <v>1.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.74</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41530.34722222222</v>
+        <v>44782.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.2</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H3" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="I3" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J3" s="4" t="n">
         <v>0.17</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.67</v>
-      </c>
       <c r="K3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.18</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.21</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.22</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W3" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.86</v>
-      </c>
       <c r="X3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.93</v>
+        <v>0.48</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.15</v>
+        <v>0.26</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.65</v>
+        <v>0.83</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.14</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41530.35416666666</v>
+        <v>44782.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.32</v>
+        <v>1.02</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.69</v>
+        <v>0.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.03</v>
+        <v>2.27</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.11</v>
+        <v>1.84</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.82</v>
+        <v>0.78</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.89</v>
+        <v>2.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.8</v>
+        <v>1.26</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.24</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.84</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.02</v>
+        <v>0.92</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.12</v>
+        <v>0.98</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.26</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.81</v>
+        <v>0.82</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.57</v>
+        <v>1.15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.53</v>
+        <v>0.7</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.85</v>
+        <v>11.85</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.06</v>
+        <v>2.3</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.67</v>
+        <v>0.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.4</v>
+        <v>1.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.78</v>
+        <v>0.85</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.37</v>
+        <v>1.45</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.48</v>
+        <v>0.66</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.76</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.09</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41530.36111111111</v>
+        <v>44782.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.63</v>
+        <v>2.49</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.96</v>
+        <v>2.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.29</v>
+        <v>3.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.02</v>
+        <v>1.38</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.07</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.86</v>
+        <v>1.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.76</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.18</v>
+        <v>13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.66</v>
+        <v>2.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.21</v>
+        <v>0.83</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.45</v>
+        <v>1.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.12</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.08</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.81</v>
+        <v>3.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41530.36805555555</v>
+        <v>44782.03472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.35</v>
+        <v>10.36</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.23</v>
+        <v>7.84</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.75</v>
+        <v>22.83</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.59</v>
+        <v>18.65</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.27</v>
+        <v>7.97</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.66</v>
+        <v>32.96</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.42</v>
+        <v>12.67</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.18</v>
+        <v>5.96</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.25</v>
+        <v>8.48</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.3</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.31</v>
+        <v>9.77</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.09</v>
+        <v>2.64</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.27</v>
+        <v>8.25</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.39</v>
+        <v>11.64</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.25</v>
+        <v>6.96</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.44</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>3.39</v>
+        <v>118.57</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.79</v>
+        <v>23.15</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.25</v>
+        <v>7.62</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.52</v>
+        <v>15.44</v>
       </c>
       <c r="X6" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>1.55</v>
+        <v>29.9</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.13</v>
+        <v>4.49</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41530.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41530.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>26.39</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41530.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41530.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41530.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>21.72</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>47.23</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>38.87</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>60.42</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>26.29</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>17.46</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>20.03</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>16.99</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>24.23</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>251.32</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>54.58</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>19.61</v>
+        <v>9.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_98.xlsx
+++ b/DATA_goal/Junction_Flooding_98.xlsx
@@ -453,8 +453,8 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -471,11 +471,11 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44782.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.33</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.8</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.27</v>
+        <v>22.7</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.44</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.85</v>
+        <v>28.54</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.44</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.46</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.85</v>
+        <v>118.53</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.15</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.51</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.55</v>
+        <v>25.52</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.49</v>
+        <v>24.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.65</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.47</v>
+        <v>34.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.25</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13</v>
+        <v>130.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.23</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.2</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.15</v>
+        <v>31.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_98.xlsx
+++ b/DATA_goal/Junction_Flooding_98.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44782.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
@@ -759,79 +759,79 @@
         <v>44782.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.95</v>
+        <v>1.951</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.633</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.73</v>
+        <v>4.732</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.505</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.028</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.62</v>
+        <v>2.618</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.724</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.76</v>
+        <v>1.757</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.072</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.86</v>
+        <v>1.857</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.293</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.754</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.33</v>
+        <v>21.331</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.47</v>
+        <v>5.468</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.22</v>
+        <v>3.219</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.31</v>
+        <v>2.306</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.78</v>
+        <v>4.779</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>1.31</v>
@@ -840,22 +840,22 @@
         <v>1.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.58</v>
+        <v>2.576</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.64</v>
+        <v>2.638</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.31</v>
+        <v>8.305999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.362</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.816</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.24</v>
+        <v>10.244</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.8</v>
+        <v>7.802</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.256</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.7</v>
+        <v>22.699</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.44</v>
+        <v>18.436</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.79</v>
+        <v>7.785</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.54</v>
+        <v>28.544</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.6</v>
+        <v>12.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.02</v>
+        <v>6.022</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.44</v>
+        <v>8.436999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.212</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.776</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.61</v>
+        <v>2.612</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.25</v>
+        <v>8.249000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.46</v>
+        <v>11.463</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.01</v>
+        <v>7.008</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.513</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.53</v>
+        <v>118.531</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.97</v>
+        <v>22.968</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.61</v>
+        <v>7.615</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.15</v>
+        <v>15.153</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.459</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.248</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.51</v>
+        <v>14.508</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.62</v>
+        <v>6.623</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.38</v>
+        <v>6.379</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.62</v>
+        <v>7.623</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.971</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>25.52</v>
+        <v>25.523</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.59</v>
+        <v>4.593</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.31</v>
+        <v>9.311999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.57</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_98.xlsx
+++ b/DATA_goal/Junction_Flooding_98.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,8 +453,8 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,103 +967,207 @@
         <v>44782.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.27</v>
+        <v>11.273</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>8.547000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.294</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.88</v>
+        <v>24.876</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.29</v>
+        <v>20.295</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.65</v>
+        <v>8.654999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>34.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.81</v>
+        <v>13.807</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.25</v>
+        <v>9.246</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.06</v>
+        <v>10.056</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.66</v>
+        <v>10.658</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.87</v>
+        <v>2.873</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9</v>
+        <v>9.000999999999999</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>12.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.6</v>
+        <v>7.602</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.495</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.01</v>
+        <v>130.009</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.23</v>
+        <v>25.228</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.31</v>
+        <v>8.308999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.79</v>
+        <v>16.791</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.16</v>
+        <v>9.159000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.33</v>
+        <v>1.329</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.2</v>
+        <v>17.203</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>7.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.83</v>
+        <v>6.828</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.09</v>
+        <v>8.090999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.78</v>
+        <v>10.777</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.45</v>
+        <v>31.452</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.24</v>
+        <v>10.241</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>118.57</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_98.xlsx
+++ b/DATA_goal/Junction_Flooding_98.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,8 +453,8 @@
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -471,11 +471,11 @@
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,207 +967,103 @@
         <v>44782.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.273</v>
+        <v>11.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.547000000000001</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>24.876</v>
+        <v>24.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.295</v>
+        <v>20.29</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.654999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>34.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.807</v>
+        <v>13.81</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.52</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.246</v>
+        <v>9.25</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.056</v>
+        <v>10.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.658</v>
+        <v>10.66</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.873</v>
+        <v>2.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.000999999999999</v>
+        <v>9</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>12.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.602</v>
+        <v>7.6</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.495</v>
+        <v>0.49</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.009</v>
+        <v>130.01</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.228</v>
+        <v>25.23</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.308999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.791</v>
+        <v>16.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.159000000000001</v>
+        <v>9.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.329</v>
+        <v>1.33</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.203</v>
+        <v>17.2</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>7.28</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.828</v>
+        <v>6.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.090999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.777</v>
+        <v>10.78</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.452</v>
+        <v>31.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.926</v>
+        <v>4.93</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.241</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.96</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.57</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.41</v>
+        <v>10.24</v>
       </c>
     </row>
   </sheetData>
